--- a/biology/Zoologie/Esox_aquitanicus/Esox_aquitanicus.xlsx
+++ b/biology/Zoologie/Esox_aquitanicus/Esox_aquitanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brochet aquitain
 Esox aquitanicus, appelé aussi Brochet aquitain,  est une espèce de poissons d'eau douce actinoptérygiens de la famille des Esocidae.
@@ -512,9 +524,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce brochet est endémique en France. Il se rencontre dans le Grand Sud-Ouest français[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce brochet est endémique en France. Il se rencontre dans le Grand Sud-Ouest français.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique est nommée en référence au lieu de sa découverte : l'Aquitaine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique est nommée en référence au lieu de sa découverte : l'Aquitaine.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 2014 par les naturalistes Gaël Pierre Julien Denys, Agnès Dettai, Henri Persat, Mélyne Hautecœur et Philippe Keith. Auparavant, elle n'était pas distinguée du grand brochet (Esox lucius), dont elle se distingue par une robe marbrée, un museau plus court et un nombre moins élevé de vertèbres et d’écailles sur la ligne latérale.
 </t>
